--- a/stock_forecast/01-preparation_analysis/Processed/EGHT.xlsx
+++ b/stock_forecast/01-preparation_analysis/Processed/EGHT.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ838"/>
+  <dimension ref="A1:AJ839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94365,6 +94365,118 @@
         </is>
       </c>
     </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B839" t="n">
+        <v>2.289999961853027</v>
+      </c>
+      <c r="C839" t="n">
+        <v>2.319999933242798</v>
+      </c>
+      <c r="D839" t="n">
+        <v>2.220000028610229</v>
+      </c>
+      <c r="E839" t="n">
+        <v>2.279999971389771</v>
+      </c>
+      <c r="F839" t="n">
+        <v>656649</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="n">
+        <v>-0.004366808135299771</v>
+      </c>
+      <c r="J839" t="n">
+        <v>0</v>
+      </c>
+      <c r="K839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>-73143000</v>
+      </c>
+      <c r="N839" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="O839" t="n">
+        <v>743938000</v>
+      </c>
+      <c r="P839" t="n">
+        <v>-14011000</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>20366000</v>
+      </c>
+      <c r="R839" t="n">
+        <v>20366000</v>
+      </c>
+      <c r="S839" t="n">
+        <v>48786000</v>
+      </c>
+      <c r="T839" t="n">
+        <v>-14887000</v>
+      </c>
+      <c r="U839" t="n">
+        <v>33899000</v>
+      </c>
+      <c r="V839" t="n">
+        <v>48786000</v>
+      </c>
+      <c r="W839" t="n">
+        <v>6050000</v>
+      </c>
+      <c r="X839" t="n">
+        <v>-37784000</v>
+      </c>
+      <c r="Y839" t="n">
+        <v>2.297999954223633</v>
+      </c>
+      <c r="Z839" t="n">
+        <v>2.389999961853027</v>
+      </c>
+      <c r="AA839" t="n">
+        <v>2.452666672070821</v>
+      </c>
+      <c r="AB839" t="n">
+        <v>2.665599999427795</v>
+      </c>
+      <c r="AC839" t="n">
+        <v>42.26803084794489</v>
+      </c>
+      <c r="AD839" t="n">
+        <v>-0.108740411150444</v>
+      </c>
+      <c r="AE839" t="n">
+        <v>-0.1141977958858782</v>
+      </c>
+      <c r="AF839" t="n">
+        <v>2.431499993801117</v>
+      </c>
+      <c r="AG839" t="n">
+        <v>2.634819058823043</v>
+      </c>
+      <c r="AH839" t="n">
+        <v>2.228180928779191</v>
+      </c>
+      <c r="AI839" t="n">
+        <v>0.03481090705514303</v>
+      </c>
+      <c r="AJ839" t="inlineStr">
+        <is>
+          <t>EGHT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
